--- a/Configuraciones de capa y herramienta.xlsx
+++ b/Configuraciones de capa y herramienta.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdomi\Desktop\Doctorado UC3M-Airbus\PYTHON\TFG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisg\Documents\Python Projects\DIGITALIZACION_DE_CALIDAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DBA85D4-456C-410B-8F06-F49059F89AB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362C2BC3-18C9-4053-8053-E0D1B835B8E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{40C7C397-F49E-47D9-8546-C23DA8E4BCEC}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{40C7C397-F49E-47D9-8546-C23DA8E4BCEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -125,10 +125,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -448,98 +448,102 @@
   <dimension ref="D3:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D3" s="1" t="s">
+    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D4" s="2" t="s">
+    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D5" s="2">
+    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
         <v>4.8</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>503</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>7.9</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>534</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3">
+      <c r="G6" s="1"/>
+      <c r="H6" s="2">
         <v>535</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <v>1534</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <v>1535</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
